--- a/data/trans_bre/P13A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,12 +636,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -651,29 +651,29 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
@@ -681,7 +681,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>86,78%</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,95</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 24,18</t>
+          <t>-2,48; 6,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 19,73</t>
+          <t>-1,07; 2,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 17,1</t>
+          <t>-3,6; 4,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-68,04</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-68,04%</t>
+          <t>-31,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-66,5%</t>
+          <t>-41,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-53,45%</t>
+          <t>-46,97%</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 0,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,72; 8,42</t>
+          <t>-1,46; 0,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 13,84</t>
+          <t>-1,31; 1,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 4,76</t>
+          <t>-3,85; 1,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,28</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-62,17%</t>
+          <t>-75,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-24,82%</t>
+          <t>-34,06%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-35,82%</t>
+          <t>-31,97%</t>
         </is>
       </c>
     </row>
@@ -1054,27 +1054,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 14,74</t>
+          <t>-2,69; 0,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 13,22</t>
+          <t>-2,5; 1,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 9,7</t>
+          <t>-4,99; 1,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,8; 292,84</t>
+          <t>-89,33; 236,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-81,77; 110,3</t>
+          <t>-82,91; 111,21</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>296,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>113,08%</t>
+          <t>131,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-18,41%</t>
+          <t>-24,2%</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-53,57; 44,17</t>
+          <t>-0,32; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 29,91</t>
+          <t>-0,63; 1,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 15,06</t>
+          <t>-6,35; 2,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-64,66; 74,55</t>
+          <t>-71,99; 91,61</t>
         </is>
       </c>
     </row>
@@ -1236,39 +1236,39 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,18</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,35</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>183,68%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>574,68%</t>
+          <t>507,48%</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,51</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,8; 30,07</t>
+          <t>-0,78; 2,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,26</t>
+          <t>0,0; 7,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1356,52 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-15,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-57,01%</t>
+          <t>-59,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>47,22%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1414,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 41,4</t>
+          <t>-0,31; 0,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 24,58</t>
+          <t>-0,4; 0,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 7,06</t>
+          <t>-0,37; 0,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 9,12</t>
+          <t>-0,3; 1,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 8,65</t>
+          <t>-1,52; 1,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1449,17 +1449,24 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 157,85</t>
+          <t>-72,72; 319,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 168,47</t>
+          <t>-32,06; 233,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 81,85</t>
+          <t>-43,34; 87,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
